--- a/data/pca/factorExposure/factorExposure_2016-12-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0147865544447282</v>
+        <v>0.0132706034331579</v>
       </c>
       <c r="C2">
-        <v>0.04389497650876333</v>
+        <v>0.04127217787664098</v>
       </c>
       <c r="D2">
-        <v>-0.02388832917920396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05993834662785233</v>
+      </c>
+      <c r="E2">
+        <v>0.01425926532362466</v>
+      </c>
+      <c r="F2">
+        <v>-0.09205611688323234</v>
+      </c>
+      <c r="G2">
+        <v>-0.03937457467593719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.05967172259794301</v>
+        <v>0.03535241613295805</v>
       </c>
       <c r="C3">
-        <v>0.1016735854361111</v>
+        <v>0.08751224721413565</v>
       </c>
       <c r="D3">
-        <v>-0.03825370812733804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.102079037263208</v>
+      </c>
+      <c r="E3">
+        <v>0.02827571595408161</v>
+      </c>
+      <c r="F3">
+        <v>-0.1005070388256236</v>
+      </c>
+      <c r="G3">
+        <v>0.06332189683924021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06174939322244378</v>
+        <v>0.05701661046716044</v>
       </c>
       <c r="C4">
-        <v>0.06305301915666509</v>
+        <v>0.06026855465718689</v>
       </c>
       <c r="D4">
-        <v>-0.002032037055820444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05515938503694235</v>
+      </c>
+      <c r="E4">
+        <v>0.009677602583351637</v>
+      </c>
+      <c r="F4">
+        <v>-0.09663013277077553</v>
+      </c>
+      <c r="G4">
+        <v>0.02533583494851171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02742256262867931</v>
+        <v>0.03548123557342588</v>
       </c>
       <c r="C6">
-        <v>0.05246901530084573</v>
+        <v>0.03812269701791761</v>
       </c>
       <c r="D6">
-        <v>-0.007070550799027812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06277976012101216</v>
+      </c>
+      <c r="E6">
+        <v>0.01635107440944108</v>
+      </c>
+      <c r="F6">
+        <v>-0.08901193978403295</v>
+      </c>
+      <c r="G6">
+        <v>0.006444235277531986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01983974941206288</v>
+        <v>0.02024060383692841</v>
       </c>
       <c r="C7">
-        <v>0.04464310195048782</v>
+        <v>0.03494404211662948</v>
       </c>
       <c r="D7">
-        <v>0.01011260893338678</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03178262782170792</v>
+      </c>
+      <c r="E7">
+        <v>-0.001821441497129277</v>
+      </c>
+      <c r="F7">
+        <v>-0.1180009182277526</v>
+      </c>
+      <c r="G7">
+        <v>-0.01432683329354062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.001559266993112942</v>
+        <v>0.005739827183433992</v>
       </c>
       <c r="C8">
-        <v>0.009137827669621358</v>
+        <v>0.0186661953377829</v>
       </c>
       <c r="D8">
-        <v>-0.0183882372048561</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03628279252305604</v>
+      </c>
+      <c r="E8">
+        <v>0.008205467216395078</v>
+      </c>
+      <c r="F8">
+        <v>-0.06927215440668003</v>
+      </c>
+      <c r="G8">
+        <v>0.004432218919679372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02619062347294987</v>
+        <v>0.03518479417038642</v>
       </c>
       <c r="C9">
-        <v>0.04376424772609056</v>
+        <v>0.04617693900102213</v>
       </c>
       <c r="D9">
-        <v>0.003799787295240616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03906599852073676</v>
+      </c>
+      <c r="E9">
+        <v>0.00643748023498376</v>
+      </c>
+      <c r="F9">
+        <v>-0.09962886195216719</v>
+      </c>
+      <c r="G9">
+        <v>0.007306752510612162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07648400147164391</v>
+        <v>0.09259530671071851</v>
       </c>
       <c r="C10">
-        <v>-0.1996640624845655</v>
+        <v>-0.1954956190198613</v>
       </c>
       <c r="D10">
-        <v>-0.02109553651734811</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01211541834363565</v>
+      </c>
+      <c r="E10">
+        <v>0.03151464795651215</v>
+      </c>
+      <c r="F10">
+        <v>-0.05301335144474115</v>
+      </c>
+      <c r="G10">
+        <v>-0.0002836223404594837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03988689144205571</v>
+        <v>0.03641104013117889</v>
       </c>
       <c r="C11">
-        <v>0.05217889817226792</v>
+        <v>0.05052431075701201</v>
       </c>
       <c r="D11">
-        <v>0.005514501990653693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02874450567643926</v>
+      </c>
+      <c r="E11">
+        <v>-0.0143279946363159</v>
+      </c>
+      <c r="F11">
+        <v>-0.07174475342626592</v>
+      </c>
+      <c r="G11">
+        <v>0.001725985153954988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.0344040697553583</v>
+        <v>0.03668121206435134</v>
       </c>
       <c r="C12">
-        <v>0.043241657036689</v>
+        <v>0.04619653709786972</v>
       </c>
       <c r="D12">
-        <v>0.008925141883429979</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.01950376703173488</v>
+      </c>
+      <c r="E12">
+        <v>-0.004727286387806284</v>
+      </c>
+      <c r="F12">
+        <v>-0.07132242867566031</v>
+      </c>
+      <c r="G12">
+        <v>-0.000461168824839188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.008144197079916968</v>
+        <v>0.01239101269058385</v>
       </c>
       <c r="C13">
-        <v>0.04012573454114181</v>
+        <v>0.03770977978742176</v>
       </c>
       <c r="D13">
-        <v>-0.02017857441006379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06623828683040334</v>
+      </c>
+      <c r="E13">
+        <v>0.02556616991461696</v>
+      </c>
+      <c r="F13">
+        <v>-0.1360144990387288</v>
+      </c>
+      <c r="G13">
+        <v>0.004220524570823128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007583421541849717</v>
+        <v>0.008305144028556992</v>
       </c>
       <c r="C14">
-        <v>0.02814246596250236</v>
+        <v>0.02724335258536914</v>
       </c>
       <c r="D14">
-        <v>0.01052415761081654</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02534967252046077</v>
+      </c>
+      <c r="E14">
+        <v>0.005982441318197911</v>
+      </c>
+      <c r="F14">
+        <v>-0.1097114649668703</v>
+      </c>
+      <c r="G14">
+        <v>-0.02012814162976465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03473449279299212</v>
+        <v>0.0348605861669154</v>
       </c>
       <c r="C16">
-        <v>0.03955349155152696</v>
+        <v>0.04310816045672997</v>
       </c>
       <c r="D16">
-        <v>0.0004762953441164473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02463321113642167</v>
+      </c>
+      <c r="E16">
+        <v>0.002091630998335729</v>
+      </c>
+      <c r="F16">
+        <v>-0.07586459823099072</v>
+      </c>
+      <c r="G16">
+        <v>-0.01194401634408787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.03378080640531175</v>
+        <v>0.02063929467851079</v>
       </c>
       <c r="C19">
-        <v>0.0561160952341367</v>
+        <v>0.04715617440538478</v>
       </c>
       <c r="D19">
-        <v>-0.04080785824467809</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1013953211548731</v>
+      </c>
+      <c r="E19">
+        <v>0.02852981111645151</v>
+      </c>
+      <c r="F19">
+        <v>-0.13627198570762</v>
+      </c>
+      <c r="G19">
+        <v>-0.02763990623349014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01256277726628759</v>
+        <v>0.01609567599370184</v>
       </c>
       <c r="C20">
-        <v>0.0435417952686803</v>
+        <v>0.03727352133065786</v>
       </c>
       <c r="D20">
-        <v>-0.02241808302168533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0475730375497807</v>
+      </c>
+      <c r="E20">
+        <v>0.03259799575755132</v>
+      </c>
+      <c r="F20">
+        <v>-0.1041769201879366</v>
+      </c>
+      <c r="G20">
+        <v>-0.01134061467200249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.00615655272096956</v>
+        <v>0.009954359606150433</v>
       </c>
       <c r="C21">
-        <v>0.03671236574121971</v>
+        <v>0.03502376611301479</v>
       </c>
       <c r="D21">
-        <v>-0.03198187456250091</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06763703904984732</v>
+      </c>
+      <c r="E21">
+        <v>0.02821239248465681</v>
+      </c>
+      <c r="F21">
+        <v>-0.1554124974510958</v>
+      </c>
+      <c r="G21">
+        <v>-0.01385184766260401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.003272913838627931</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01376882069671026</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02498086319166686</v>
+      </c>
+      <c r="E22">
+        <v>-0.0001290314132137329</v>
+      </c>
+      <c r="F22">
+        <v>-0.01715658495307438</v>
+      </c>
+      <c r="G22">
+        <v>0.03338094156131214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.00331106615391482</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01370811166180451</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02478073825251366</v>
+      </c>
+      <c r="E23">
+        <v>0.0001838479950109174</v>
+      </c>
+      <c r="F23">
+        <v>-0.01696659230751992</v>
+      </c>
+      <c r="G23">
+        <v>0.03341468814754085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02800029309551253</v>
+        <v>0.03123782626904676</v>
       </c>
       <c r="C24">
-        <v>0.04639109930016515</v>
+        <v>0.04940664919505772</v>
       </c>
       <c r="D24">
-        <v>0.008881226151920102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02386239888599816</v>
+      </c>
+      <c r="E24">
+        <v>-0.005991984161310311</v>
+      </c>
+      <c r="F24">
+        <v>-0.07926963808655048</v>
+      </c>
+      <c r="G24">
+        <v>-0.006020191076938919</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04591986809028892</v>
+        <v>0.04308542517419842</v>
       </c>
       <c r="C25">
-        <v>0.05349436096108975</v>
+        <v>0.05565355798125124</v>
       </c>
       <c r="D25">
-        <v>0.0198840105000492</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0176499347399909</v>
+      </c>
+      <c r="E25">
+        <v>-0.006459807422064366</v>
+      </c>
+      <c r="F25">
+        <v>-0.0872905695129233</v>
+      </c>
+      <c r="G25">
+        <v>0.01032869995024141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.007629564627595328</v>
+        <v>0.0147979109559375</v>
       </c>
       <c r="C26">
-        <v>0.01068644048515688</v>
+        <v>0.01107302094754887</v>
       </c>
       <c r="D26">
-        <v>-0.004019934794276122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02009644801432802</v>
+      </c>
+      <c r="E26">
+        <v>0.007511013952331792</v>
+      </c>
+      <c r="F26">
+        <v>-0.08243846681873267</v>
+      </c>
+      <c r="G26">
+        <v>-0.0253695333117116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09103942278376553</v>
+        <v>0.1248265876301545</v>
       </c>
       <c r="C28">
-        <v>-0.2277730257785184</v>
+        <v>-0.2460794030788743</v>
       </c>
       <c r="D28">
-        <v>-0.01200157710085004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.005015245627102289</v>
+      </c>
+      <c r="E28">
+        <v>0.03531636105934638</v>
+      </c>
+      <c r="F28">
+        <v>-0.06137859195328406</v>
+      </c>
+      <c r="G28">
+        <v>0.00669438802752306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01162601057050869</v>
+        <v>0.008368729897646936</v>
       </c>
       <c r="C29">
-        <v>0.02143814562936927</v>
+        <v>0.02283918465445738</v>
       </c>
       <c r="D29">
-        <v>0.009737095363098023</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01559270170656328</v>
+      </c>
+      <c r="E29">
+        <v>0.01096935624254842</v>
+      </c>
+      <c r="F29">
+        <v>-0.1029381307390791</v>
+      </c>
+      <c r="G29">
+        <v>-0.006017506542519015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03958857907285144</v>
+        <v>0.03877195178877257</v>
       </c>
       <c r="C30">
-        <v>0.0721450269840596</v>
+        <v>0.06298043114098167</v>
       </c>
       <c r="D30">
-        <v>0.001118457170094445</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08942772850674643</v>
+      </c>
+      <c r="E30">
+        <v>-0.01595331106708732</v>
+      </c>
+      <c r="F30">
+        <v>-0.1102009602544954</v>
+      </c>
+      <c r="G30">
+        <v>-0.03066078760742822</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0413443900764383</v>
+        <v>0.05697512156806035</v>
       </c>
       <c r="C31">
-        <v>0.02961994811873008</v>
+        <v>0.04203704291211326</v>
       </c>
       <c r="D31">
-        <v>0.01110045747697872</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.00182382552011019</v>
+      </c>
+      <c r="E31">
+        <v>0.03349661812429458</v>
+      </c>
+      <c r="F31">
+        <v>-0.09474143993855901</v>
+      </c>
+      <c r="G31">
+        <v>0.02292698857410548</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006585913235574128</v>
+        <v>0.002959823221837951</v>
       </c>
       <c r="C32">
-        <v>0.03482551253575626</v>
+        <v>0.0249172769380667</v>
       </c>
       <c r="D32">
-        <v>-0.01334846383469462</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04504284480538529</v>
+      </c>
+      <c r="E32">
+        <v>-0.006824970386712798</v>
+      </c>
+      <c r="F32">
+        <v>-0.08025753104334138</v>
+      </c>
+      <c r="G32">
+        <v>-0.01319387311557631</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02954660593021857</v>
+        <v>0.02680614618693668</v>
       </c>
       <c r="C33">
-        <v>0.0557210669590382</v>
+        <v>0.04585462622523074</v>
       </c>
       <c r="D33">
-        <v>-0.008869281128741526</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07350044081030563</v>
+      </c>
+      <c r="E33">
+        <v>0.005157964010116573</v>
+      </c>
+      <c r="F33">
+        <v>-0.154291637191718</v>
+      </c>
+      <c r="G33">
+        <v>0.00302736823062842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05425688137683089</v>
+        <v>0.04339652380575966</v>
       </c>
       <c r="C34">
-        <v>0.05129194861330784</v>
+        <v>0.05955064639855634</v>
       </c>
       <c r="D34">
-        <v>0.01481587773151244</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.02269344499728234</v>
+      </c>
+      <c r="E34">
+        <v>-0.01966107606015918</v>
+      </c>
+      <c r="F34">
+        <v>-0.07758903598835279</v>
+      </c>
+      <c r="G34">
+        <v>-0.001540485982337544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.00861634045603045</v>
+        <v>0.01516427442442742</v>
       </c>
       <c r="C36">
-        <v>0.006716397473353485</v>
+        <v>0.006729810639753401</v>
       </c>
       <c r="D36">
-        <v>0.003816102872583721</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0223581104617237</v>
+      </c>
+      <c r="E36">
+        <v>0.01251788539276994</v>
+      </c>
+      <c r="F36">
+        <v>-0.09658677491283986</v>
+      </c>
+      <c r="G36">
+        <v>-0.00248993375673047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03782641225357463</v>
+        <v>0.03119261336570258</v>
       </c>
       <c r="C38">
-        <v>0.01853648842235215</v>
+        <v>0.02147755718217766</v>
       </c>
       <c r="D38">
-        <v>0.006391807464431851</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02188015636323724</v>
+      </c>
+      <c r="E38">
+        <v>0.01377594948045483</v>
+      </c>
+      <c r="F38">
+        <v>-0.08699818204182568</v>
+      </c>
+      <c r="G38">
+        <v>0.002628039575114928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.03800024605717955</v>
+        <v>0.03720491066205005</v>
       </c>
       <c r="C39">
-        <v>0.08477788489822086</v>
+        <v>0.07420321862593314</v>
       </c>
       <c r="D39">
-        <v>-0.004276996058622748</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04707669606443417</v>
+      </c>
+      <c r="E39">
+        <v>-0.01613690578522392</v>
+      </c>
+      <c r="F39">
+        <v>-0.08509239070430352</v>
+      </c>
+      <c r="G39">
+        <v>-0.03319453712798342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01700492616815828</v>
+        <v>0.01686337151542948</v>
       </c>
       <c r="C40">
-        <v>0.02715725781601043</v>
+        <v>0.03580334225338513</v>
       </c>
       <c r="D40">
-        <v>-0.01949853940355453</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03694019323504304</v>
+      </c>
+      <c r="E40">
+        <v>0.03072137234204164</v>
+      </c>
+      <c r="F40">
+        <v>-0.1184371197926209</v>
+      </c>
+      <c r="G40">
+        <v>0.03570243150227597</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01130309598275883</v>
+        <v>0.0184284454364914</v>
       </c>
       <c r="C41">
-        <v>-0.0006890440382371023</v>
+        <v>-0.001733945278571384</v>
       </c>
       <c r="D41">
-        <v>0.00522232901079876</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01813590173997318</v>
+      </c>
+      <c r="E41">
+        <v>0.01590051760409658</v>
+      </c>
+      <c r="F41">
+        <v>-0.08712653594984912</v>
+      </c>
+      <c r="G41">
+        <v>-0.008427914301025786</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.005710780286467305</v>
+        <v>0.003633481036760671</v>
       </c>
       <c r="C42">
-        <v>0.04958820356513818</v>
+        <v>0.02719918857642157</v>
       </c>
       <c r="D42">
-        <v>-0.02085202996738828</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.002311704952668766</v>
+      </c>
+      <c r="E42">
+        <v>0.02326752049656821</v>
+      </c>
+      <c r="F42">
+        <v>0.03592279011744717</v>
+      </c>
+      <c r="G42">
+        <v>-0.008414762314311515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03043414443482891</v>
+        <v>0.03236139376849651</v>
       </c>
       <c r="C43">
-        <v>0.009318021413340765</v>
+        <v>0.01060707584826528</v>
       </c>
       <c r="D43">
-        <v>0.004098689025565097</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03738538874703281</v>
+      </c>
+      <c r="E43">
+        <v>0.01273496919561747</v>
+      </c>
+      <c r="F43">
+        <v>-0.1121614620021879</v>
+      </c>
+      <c r="G43">
+        <v>0.01179014559310627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02215537168806886</v>
+        <v>0.01525093725688308</v>
       </c>
       <c r="C44">
-        <v>0.05362704516353013</v>
+        <v>0.05089717533094871</v>
       </c>
       <c r="D44">
-        <v>-0.006597037280575757</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04279009352556847</v>
+      </c>
+      <c r="E44">
+        <v>0.02207087551289958</v>
+      </c>
+      <c r="F44">
+        <v>-0.1136895418940784</v>
+      </c>
+      <c r="G44">
+        <v>-0.01055770406052815</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0005976555403942433</v>
+        <v>0.01025751283884857</v>
       </c>
       <c r="C46">
-        <v>0.01436647655463567</v>
+        <v>0.01801656952964479</v>
       </c>
       <c r="D46">
-        <v>0.01844822652719614</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.008505619252949534</v>
+      </c>
+      <c r="E46">
+        <v>0.01641471517819207</v>
+      </c>
+      <c r="F46">
+        <v>-0.1106675702241864</v>
+      </c>
+      <c r="G46">
+        <v>-0.0126564597413035</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07566377574137</v>
+        <v>0.08654843755619319</v>
       </c>
       <c r="C47">
-        <v>0.06544760826282937</v>
+        <v>0.07209381039602072</v>
       </c>
       <c r="D47">
-        <v>0.008713000150273988</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008196600957111416</v>
+      </c>
+      <c r="E47">
+        <v>0.04197197123328824</v>
+      </c>
+      <c r="F47">
+        <v>-0.08948953427271783</v>
+      </c>
+      <c r="G47">
+        <v>0.03018584260669405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01647911730229037</v>
+        <v>0.0168986460215199</v>
       </c>
       <c r="C48">
-        <v>0.009354869556165334</v>
+        <v>0.01295517040379417</v>
       </c>
       <c r="D48">
-        <v>0.007827382585410589</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01548701673473674</v>
+      </c>
+      <c r="E48">
+        <v>0.02185514480166014</v>
+      </c>
+      <c r="F48">
+        <v>-0.1053256896942791</v>
+      </c>
+      <c r="G48">
+        <v>-0.007254838516660058</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08180145958897424</v>
+        <v>0.07809384905398727</v>
       </c>
       <c r="C50">
-        <v>0.06107718032302295</v>
+        <v>0.06757254462393142</v>
       </c>
       <c r="D50">
-        <v>0.0154531021451493</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0005383939593577681</v>
+      </c>
+      <c r="E50">
+        <v>0.04025315557821361</v>
+      </c>
+      <c r="F50">
+        <v>-0.09773846046217999</v>
+      </c>
+      <c r="G50">
+        <v>0.05312962187657281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01684751983699525</v>
+        <v>0.01265969352076182</v>
       </c>
       <c r="C51">
-        <v>0.03761635950166789</v>
+        <v>0.03165558886456965</v>
       </c>
       <c r="D51">
-        <v>0.004924500144954885</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04268816635526858</v>
+      </c>
+      <c r="E51">
+        <v>-0.00620539414014681</v>
+      </c>
+      <c r="F51">
+        <v>-0.1020424952659008</v>
+      </c>
+      <c r="G51">
+        <v>-0.02296499708526576</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1015541650782098</v>
+        <v>0.09007857730909671</v>
       </c>
       <c r="C53">
-        <v>0.06920495527002699</v>
+        <v>0.08680465072030602</v>
       </c>
       <c r="D53">
-        <v>0.03496100638399116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03043323866756178</v>
+      </c>
+      <c r="E53">
+        <v>0.04890569806063862</v>
+      </c>
+      <c r="F53">
+        <v>-0.09765454145140587</v>
+      </c>
+      <c r="G53">
+        <v>0.0446867017171585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02858998742304345</v>
+        <v>0.03109406894260101</v>
       </c>
       <c r="C54">
-        <v>0.001496414688762596</v>
+        <v>0.0173732829814993</v>
       </c>
       <c r="D54">
-        <v>-0.004744779230195253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02967056677929358</v>
+      </c>
+      <c r="E54">
+        <v>0.01164199862818872</v>
+      </c>
+      <c r="F54">
+        <v>-0.1092764456462907</v>
+      </c>
+      <c r="G54">
+        <v>-0.01009776101123927</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0757622631253772</v>
+        <v>0.08267338616093423</v>
       </c>
       <c r="C55">
-        <v>0.06378625706878317</v>
+        <v>0.06981742794967803</v>
       </c>
       <c r="D55">
-        <v>0.02803945717252637</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03429520886942127</v>
+      </c>
+      <c r="E55">
+        <v>0.047123567583353</v>
+      </c>
+      <c r="F55">
+        <v>-0.06876691872196503</v>
+      </c>
+      <c r="G55">
+        <v>0.03442707976189027</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1553449458158633</v>
+        <v>0.1450615421498763</v>
       </c>
       <c r="C56">
-        <v>0.09060612676209191</v>
+        <v>0.1049923536708537</v>
       </c>
       <c r="D56">
-        <v>0.03197114551069171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04135611022406688</v>
+      </c>
+      <c r="E56">
+        <v>0.05385292769566465</v>
+      </c>
+      <c r="F56">
+        <v>-0.05685146050196518</v>
+      </c>
+      <c r="G56">
+        <v>0.05023209738073556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.005663858950829066</v>
+        <v>0.002343344442523103</v>
       </c>
       <c r="C57">
-        <v>0.00846128500273737</v>
+        <v>0.004440310514529196</v>
       </c>
       <c r="D57">
-        <v>-0.03111349139528285</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02673518773540082</v>
+      </c>
+      <c r="E57">
+        <v>0.001441793930221458</v>
+      </c>
+      <c r="F57">
+        <v>-0.01010572669404685</v>
+      </c>
+      <c r="G57">
+        <v>-0.001715209558235138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05535478749151427</v>
+        <v>0.03746572795479353</v>
       </c>
       <c r="C58">
-        <v>0.06854130673724426</v>
+        <v>0.0298554938685739</v>
       </c>
       <c r="D58">
-        <v>-0.9635081511290647</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.6963384050860725</v>
+      </c>
+      <c r="E58">
+        <v>0.6079765003231127</v>
+      </c>
+      <c r="F58">
+        <v>0.3128451980433672</v>
+      </c>
+      <c r="G58">
+        <v>0.03228623169608153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.138158623898992</v>
+        <v>0.1475163892702271</v>
       </c>
       <c r="C59">
-        <v>-0.2262653778930316</v>
+        <v>-0.2054672621589965</v>
       </c>
       <c r="D59">
-        <v>-0.01326947992508962</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02096208826339329</v>
+      </c>
+      <c r="E59">
+        <v>0.01336063239299134</v>
+      </c>
+      <c r="F59">
+        <v>-0.03885631375315296</v>
+      </c>
+      <c r="G59">
+        <v>-0.02488423052994938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3120826991284137</v>
+        <v>0.2865546349648445</v>
       </c>
       <c r="C60">
-        <v>0.07541205082511705</v>
+        <v>0.08951360149159504</v>
       </c>
       <c r="D60">
-        <v>-0.02645083762240671</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1455545748520998</v>
+      </c>
+      <c r="E60">
+        <v>-0.2933068780096538</v>
+      </c>
+      <c r="F60">
+        <v>0.1323736320751008</v>
+      </c>
+      <c r="G60">
+        <v>0.04582515158530492</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03477934784951085</v>
+        <v>0.0395525498546478</v>
       </c>
       <c r="C61">
-        <v>0.06220397816910881</v>
+        <v>0.06200692841678762</v>
       </c>
       <c r="D61">
-        <v>-0.003914256125962949</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04084619912292553</v>
+      </c>
+      <c r="E61">
+        <v>-0.006308971036942903</v>
+      </c>
+      <c r="F61">
+        <v>-0.08839036917992614</v>
+      </c>
+      <c r="G61">
+        <v>-0.0001620169920506151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.0153029263629254</v>
+        <v>0.01581123995270594</v>
       </c>
       <c r="C63">
-        <v>0.02672290317613545</v>
+        <v>0.02682394657757945</v>
       </c>
       <c r="D63">
-        <v>0.01694102955531956</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01535943885247311</v>
+      </c>
+      <c r="E63">
+        <v>0.01273130637393386</v>
+      </c>
+      <c r="F63">
+        <v>-0.08943474035311935</v>
+      </c>
+      <c r="G63">
+        <v>0.01811946137303227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04708907388886346</v>
+        <v>0.05254405316939218</v>
       </c>
       <c r="C64">
-        <v>0.02897393640464406</v>
+        <v>0.04655622632197601</v>
       </c>
       <c r="D64">
-        <v>0.01459077723102808</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.009659915111141497</v>
+      </c>
+      <c r="E64">
+        <v>-0.002522869926296762</v>
+      </c>
+      <c r="F64">
+        <v>-0.09131480283366079</v>
+      </c>
+      <c r="G64">
+        <v>-0.01779397892475848</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08814118909703282</v>
+        <v>0.07176650242400476</v>
       </c>
       <c r="C65">
-        <v>0.06049769023783336</v>
+        <v>0.04318500374483255</v>
       </c>
       <c r="D65">
-        <v>-0.009715963865812629</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.06768295422154474</v>
+      </c>
+      <c r="E65">
+        <v>-0.003994674764710703</v>
+      </c>
+      <c r="F65">
+        <v>-0.03964953616273858</v>
+      </c>
+      <c r="G65">
+        <v>-0.00528301730369828</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0622401411791501</v>
+        <v>0.05084419707125245</v>
       </c>
       <c r="C66">
-        <v>0.1197554887837355</v>
+        <v>0.09789435380185141</v>
       </c>
       <c r="D66">
-        <v>-0.01004748634014308</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07041006220415139</v>
+      </c>
+      <c r="E66">
+        <v>-0.01929415598247677</v>
+      </c>
+      <c r="F66">
+        <v>-0.09097751738215525</v>
+      </c>
+      <c r="G66">
+        <v>-0.01413105694946946</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06420753547242514</v>
+        <v>0.05329191996193609</v>
       </c>
       <c r="C67">
-        <v>0.02107207094953863</v>
+        <v>0.02688025826103729</v>
       </c>
       <c r="D67">
-        <v>0.01185097778508691</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.007935260368173288</v>
+      </c>
+      <c r="E67">
+        <v>0.007419570351683396</v>
+      </c>
+      <c r="F67">
+        <v>-0.07187125726746466</v>
+      </c>
+      <c r="G67">
+        <v>0.008386970524951378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1102936475759473</v>
+        <v>0.1478938305547495</v>
       </c>
       <c r="C68">
-        <v>-0.2895928594199444</v>
+        <v>-0.2690586617265385</v>
       </c>
       <c r="D68">
-        <v>-0.02518122271965986</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.008886461254438619</v>
+      </c>
+      <c r="E68">
+        <v>0.04271008003903335</v>
+      </c>
+      <c r="F68">
+        <v>-0.02380318661602892</v>
+      </c>
+      <c r="G68">
+        <v>-0.005855512858983866</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08377548514840046</v>
+        <v>0.08530615187790981</v>
       </c>
       <c r="C69">
-        <v>0.0593959682447784</v>
+        <v>0.07522472957400714</v>
       </c>
       <c r="D69">
-        <v>0.02946139165233031</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01122852847288662</v>
+      </c>
+      <c r="E69">
+        <v>0.01574397441990438</v>
+      </c>
+      <c r="F69">
+        <v>-0.09806062412348301</v>
+      </c>
+      <c r="G69">
+        <v>-3.591429647415088e-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1175813680380068</v>
+        <v>0.1373905303531</v>
       </c>
       <c r="C71">
-        <v>-0.2413758283084944</v>
+        <v>-0.23869781180951</v>
       </c>
       <c r="D71">
-        <v>-0.02565857209494433</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02012364260235583</v>
+      </c>
+      <c r="E71">
+        <v>0.04172577606959144</v>
+      </c>
+      <c r="F71">
+        <v>-0.06739406906551645</v>
+      </c>
+      <c r="G71">
+        <v>0.01722411881941337</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.07835434099304454</v>
+        <v>0.08792516492596657</v>
       </c>
       <c r="C72">
-        <v>0.05778181208801362</v>
+        <v>0.05613475290829429</v>
       </c>
       <c r="D72">
-        <v>0.04826195556423157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.007149255120882676</v>
+      </c>
+      <c r="E72">
+        <v>-0.02400146379528208</v>
+      </c>
+      <c r="F72">
+        <v>-0.07953783154337539</v>
+      </c>
+      <c r="G72">
+        <v>0.009588545209406926</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.449614058276957</v>
+        <v>0.3657235581379247</v>
       </c>
       <c r="C73">
-        <v>0.07533461770242257</v>
+        <v>0.07236917253283401</v>
       </c>
       <c r="D73">
-        <v>-0.04205957373540002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3076700232991277</v>
+      </c>
+      <c r="E73">
+        <v>-0.5304280184371793</v>
+      </c>
+      <c r="F73">
+        <v>0.322830366870499</v>
+      </c>
+      <c r="G73">
+        <v>0.1702246587365002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1211810512829146</v>
+        <v>0.1137277204648605</v>
       </c>
       <c r="C74">
-        <v>0.1118916822057512</v>
+        <v>0.105361186134121</v>
       </c>
       <c r="D74">
-        <v>0.02522290483578509</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01727930075233887</v>
+      </c>
+      <c r="E74">
+        <v>0.06595356780343198</v>
+      </c>
+      <c r="F74">
+        <v>-0.08156285930590379</v>
+      </c>
+      <c r="G74">
+        <v>0.05692923552655592</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2719957520362776</v>
+        <v>0.2579856932285369</v>
       </c>
       <c r="C75">
-        <v>0.1205742546920892</v>
+        <v>0.1416446460939696</v>
       </c>
       <c r="D75">
-        <v>0.05667787746984902</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1075945289292461</v>
+      </c>
+      <c r="E75">
+        <v>0.1220262190941789</v>
+      </c>
+      <c r="F75">
+        <v>-0.02254583649911437</v>
+      </c>
+      <c r="G75">
+        <v>0.08498985479486805</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1235793194289409</v>
+        <v>0.1280628628391526</v>
       </c>
       <c r="C76">
-        <v>0.1029133680939679</v>
+        <v>0.1052436087800707</v>
       </c>
       <c r="D76">
-        <v>0.04102399503012866</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04646756044343944</v>
+      </c>
+      <c r="E76">
+        <v>0.08293589621344397</v>
+      </c>
+      <c r="F76">
+        <v>-0.07673353644706281</v>
+      </c>
+      <c r="G76">
+        <v>0.0522547724838234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0743554838756378</v>
+        <v>0.06674945405875295</v>
       </c>
       <c r="C77">
-        <v>0.05720877846147629</v>
+        <v>0.06257378694957356</v>
       </c>
       <c r="D77">
-        <v>-0.03049504591506083</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05879059025860051</v>
+      </c>
+      <c r="E77">
+        <v>0.03518654671029119</v>
+      </c>
+      <c r="F77">
+        <v>-0.09982821996942416</v>
+      </c>
+      <c r="G77">
+        <v>-0.1374456033133532</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04568413981767831</v>
+        <v>0.04294969869840344</v>
       </c>
       <c r="C78">
-        <v>0.04802074967659611</v>
+        <v>0.05431617205134252</v>
       </c>
       <c r="D78">
-        <v>-0.005511813859676074</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05725322249707197</v>
+      </c>
+      <c r="E78">
+        <v>-0.0193205654926226</v>
+      </c>
+      <c r="F78">
+        <v>-0.09935601418562227</v>
+      </c>
+      <c r="G78">
+        <v>-0.01201272569615147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.003442013922476394</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.01770556145126534</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01247829172027532</v>
+      </c>
+      <c r="E79">
+        <v>0.03145124900825425</v>
+      </c>
+      <c r="F79">
+        <v>-0.04245632392962068</v>
+      </c>
+      <c r="G79">
+        <v>0.02414341066621028</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.05598154814787783</v>
+        <v>0.04076767982831957</v>
       </c>
       <c r="C80">
-        <v>0.05647297169674789</v>
+        <v>0.04752697086841591</v>
       </c>
       <c r="D80">
-        <v>-0.014689636414984</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04152118342997383</v>
+      </c>
+      <c r="E80">
+        <v>-0.0005270643119997082</v>
+      </c>
+      <c r="F80">
+        <v>-0.03366669615540373</v>
+      </c>
+      <c r="G80">
+        <v>-0.04649286691409177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1398996911582739</v>
+        <v>0.1435679917208088</v>
       </c>
       <c r="C81">
-        <v>0.07708697503195938</v>
+        <v>0.09348062991690508</v>
       </c>
       <c r="D81">
-        <v>0.03535012950366734</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07684148902833834</v>
+      </c>
+      <c r="E81">
+        <v>0.1054743231201848</v>
+      </c>
+      <c r="F81">
+        <v>-0.04095886750757061</v>
+      </c>
+      <c r="G81">
+        <v>0.05214060986511445</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.05793594126361782</v>
+        <v>0.1789684176491954</v>
       </c>
       <c r="C82">
-        <v>0.04046644771834577</v>
+        <v>0.1253060733796907</v>
       </c>
       <c r="D82">
-        <v>0.02134318787292792</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1907252378196328</v>
+      </c>
+      <c r="E82">
+        <v>0.05660625374450151</v>
+      </c>
+      <c r="F82">
+        <v>-0.04628470168519621</v>
+      </c>
+      <c r="G82">
+        <v>-0.01171731006333983</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03051187443994506</v>
+        <v>0.02859435888155574</v>
       </c>
       <c r="C83">
-        <v>0.01905359566700258</v>
+        <v>0.03204169805981216</v>
       </c>
       <c r="D83">
-        <v>-0.01730235986824504</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03410434920463035</v>
+      </c>
+      <c r="E83">
+        <v>-0.008012235413333053</v>
+      </c>
+      <c r="F83">
+        <v>-0.05487080815963694</v>
+      </c>
+      <c r="G83">
+        <v>-0.03232325603511359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2500909245241418</v>
+        <v>0.2134166512715386</v>
       </c>
       <c r="C85">
-        <v>0.1181580220805367</v>
+        <v>0.1268674814127072</v>
       </c>
       <c r="D85">
-        <v>0.1197505011521767</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.112141816873988</v>
+      </c>
+      <c r="E85">
+        <v>0.05093229157161501</v>
+      </c>
+      <c r="F85">
+        <v>0.01140227230644398</v>
+      </c>
+      <c r="G85">
+        <v>0.1268323128144255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01207373190101529</v>
+        <v>0.01393856785835208</v>
       </c>
       <c r="C86">
-        <v>0.02109269037452129</v>
+        <v>0.02344434803206371</v>
       </c>
       <c r="D86">
-        <v>-0.01250858977929851</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.08035457514821021</v>
+      </c>
+      <c r="E86">
+        <v>-0.006097595627775529</v>
+      </c>
+      <c r="F86">
+        <v>-0.1641495026241573</v>
+      </c>
+      <c r="G86">
+        <v>-0.03531679067824641</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01407858324812103</v>
+        <v>0.02042231560426305</v>
       </c>
       <c r="C87">
-        <v>0.02269268803220816</v>
+        <v>0.01546106448219507</v>
       </c>
       <c r="D87">
-        <v>-0.0793955830566853</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09835365024227102</v>
+      </c>
+      <c r="E87">
+        <v>0.04063299844021515</v>
+      </c>
+      <c r="F87">
+        <v>-0.1055876169376943</v>
+      </c>
+      <c r="G87">
+        <v>-0.04992719192936212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.09858990864937434</v>
+        <v>0.09035451524012356</v>
       </c>
       <c r="C88">
-        <v>0.06015918472267959</v>
+        <v>0.06027304267809642</v>
       </c>
       <c r="D88">
-        <v>0.002899812412709825</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01217252497901128</v>
+      </c>
+      <c r="E88">
+        <v>0.01369342291522732</v>
+      </c>
+      <c r="F88">
+        <v>-0.09571957602209455</v>
+      </c>
+      <c r="G88">
+        <v>-0.04948640432653222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1863798428116756</v>
+        <v>0.2093329383006051</v>
       </c>
       <c r="C89">
-        <v>-0.3772525724213059</v>
+        <v>-0.3725947668951656</v>
       </c>
       <c r="D89">
-        <v>0.01878719676361923</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0214729343746893</v>
+      </c>
+      <c r="E89">
+        <v>0.009216163182750351</v>
+      </c>
+      <c r="F89">
+        <v>-0.07631224066579184</v>
+      </c>
+      <c r="G89">
+        <v>-0.09050660774217158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1696806112659658</v>
+        <v>0.1970669989704569</v>
       </c>
       <c r="C90">
-        <v>-0.3532919938222637</v>
+        <v>-0.3256228759599262</v>
       </c>
       <c r="D90">
-        <v>-0.02005085280014067</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0158177190742937</v>
+      </c>
+      <c r="E90">
+        <v>0.05462820587436702</v>
+      </c>
+      <c r="F90">
+        <v>-0.04958944857466251</v>
+      </c>
+      <c r="G90">
+        <v>-0.03039909039219377</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2087746491566778</v>
+        <v>0.1943380766135827</v>
       </c>
       <c r="C91">
-        <v>0.1079564821763229</v>
+        <v>0.1334397853569384</v>
       </c>
       <c r="D91">
-        <v>0.05297460350446547</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.09248747540467946</v>
+      </c>
+      <c r="E91">
+        <v>0.1047335814780325</v>
+      </c>
+      <c r="F91">
+        <v>-0.05186630891560575</v>
+      </c>
+      <c r="G91">
+        <v>0.05389813805347935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.173769320857288</v>
+        <v>0.1806612854390701</v>
       </c>
       <c r="C92">
-        <v>-0.2804428706076814</v>
+        <v>-0.2758238438419582</v>
       </c>
       <c r="D92">
-        <v>-0.007370934055514139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.000228137462980413</v>
+      </c>
+      <c r="E92">
+        <v>0.07730223507947909</v>
+      </c>
+      <c r="F92">
+        <v>-0.07457740295597311</v>
+      </c>
+      <c r="G92">
+        <v>-0.021809026976342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1817730428064393</v>
+        <v>0.219977274170704</v>
       </c>
       <c r="C93">
-        <v>-0.3307582442320396</v>
+        <v>-0.3200303348906531</v>
       </c>
       <c r="D93">
-        <v>-0.01465691597749661</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.001797202501297836</v>
+      </c>
+      <c r="E93">
+        <v>0.04035327318098576</v>
+      </c>
+      <c r="F93">
+        <v>-0.05845113257936598</v>
+      </c>
+      <c r="G93">
+        <v>0.01321903125134418</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2697313563191091</v>
+        <v>0.3376698766184326</v>
       </c>
       <c r="C94">
-        <v>0.1340650881768736</v>
+        <v>0.1865789658302097</v>
       </c>
       <c r="D94">
-        <v>0.07961304386570901</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3954378729899236</v>
+      </c>
+      <c r="E94">
+        <v>0.3218611020780964</v>
+      </c>
+      <c r="F94">
+        <v>0.4261828978510073</v>
+      </c>
+      <c r="G94">
+        <v>-0.2404443311937519</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.08500231685842974</v>
+        <v>0.08082492957663122</v>
       </c>
       <c r="C95">
-        <v>0.08093529393578452</v>
+        <v>0.08269426966819704</v>
       </c>
       <c r="D95">
-        <v>-0.08068063021644968</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1445187316773567</v>
+      </c>
+      <c r="E95">
+        <v>-0.1597495799036193</v>
+      </c>
+      <c r="F95">
+        <v>-0.003241634799079806</v>
+      </c>
+      <c r="G95">
+        <v>-0.892455055132428</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.209198288859645</v>
+        <v>0.1949828770365568</v>
       </c>
       <c r="C98">
-        <v>0.03119810685391841</v>
+        <v>0.04061781832485302</v>
       </c>
       <c r="D98">
-        <v>-0.03561626661335456</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1353282220786879</v>
+      </c>
+      <c r="E98">
+        <v>-0.1866670456343704</v>
+      </c>
+      <c r="F98">
+        <v>0.04810730642734372</v>
+      </c>
+      <c r="G98">
+        <v>0.1059854271029619</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01125531309855296</v>
+        <v>0.008204021077547639</v>
       </c>
       <c r="C101">
-        <v>0.02151530574385654</v>
+        <v>0.02275468742234201</v>
       </c>
       <c r="D101">
-        <v>0.009839555202441536</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01511292467276058</v>
+      </c>
+      <c r="E101">
+        <v>0.01145617991960204</v>
+      </c>
+      <c r="F101">
+        <v>-0.102221637057597</v>
+      </c>
+      <c r="G101">
+        <v>-0.006861160990591128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1276098487845954</v>
+        <v>0.1246760470491741</v>
       </c>
       <c r="C102">
-        <v>0.07156608883461431</v>
+        <v>0.09536750677950027</v>
       </c>
       <c r="D102">
-        <v>0.03767183128745565</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05145408697329798</v>
+      </c>
+      <c r="E102">
+        <v>0.01525579974873263</v>
+      </c>
+      <c r="F102">
+        <v>-0.02043042198313679</v>
+      </c>
+      <c r="G102">
+        <v>0.02110516198886953</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.002908034619443864</v>
+        <v>-0.001759398613269369</v>
       </c>
       <c r="C104">
-        <v>0.01268307594869518</v>
+        <v>0.005953582994108842</v>
       </c>
       <c r="D104">
-        <v>-0.02842766481271201</v>
+        <v>-0.02181821297118567</v>
+      </c>
+      <c r="E104">
+        <v>-0.001305970155209898</v>
+      </c>
+      <c r="F104">
+        <v>-0.002965117218151795</v>
+      </c>
+      <c r="G104">
+        <v>-0.00825716866726291</v>
       </c>
     </row>
   </sheetData>
